--- a/target/classes/LoginTest.xlsx
+++ b/target/classes/LoginTest.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="16020" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="16020" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
